--- a/MachineLearning/PART2/df_excelwriter.xlsx
+++ b/MachineLearning/PART2/df_excelwriter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>algol</t>
   </si>
@@ -44,18 +44,9 @@
     <t>A+</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -66,6 +57,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
   </si>
   <si>
     <t>c0</t>
@@ -454,10 +448,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -471,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -479,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -495,30 +489,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,8 +531,11 @@
       <c r="E2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -551,8 +551,11 @@
       <c r="E3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -567,6 +570,9 @@
       </c>
       <c r="E4">
         <v>15</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
